--- a/biology/Histoire de la zoologie et de la botanique/Charles_Wright_(botaniste)/Charles_Wright_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Wright_(botaniste)/Charles_Wright_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Wright est un botaniste américain, né le 29 octobre 1811 à Wethersfield et mort le 11 août 1885 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de James Wright et de Mary, née Goodrich. Il fait ses études à Yale et commence à enseigner, en 1835, des écoles du Mississippi et de l’est du Texas. À partir de 1845, il enseigne à Rutersville.
 Il se joint à l’armée américaine lors de son expédition qui va de San Antonio à El Paso durant l’été 1849. Il récolte de nombreuses plantes qu’il fait parvenir à Asa Gray (1810-1888). Il est le botaniste de plusieurs expéditions : à la frontière mexicaine en 1851-1852, dans le nord de la côte du Pacifique en 1852, en Afrique du Sud, Hong Kong, îles Loo Choo, Japon de 1853 à 1856. De 1856 à 1867, il est à la tête d'une mission scientifique à Cuba. À partir de 1868, il dirige l’herbier de Cambridge. De 1875 à 1876, il est bibliothécaire de l’Institut Bussey.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cactus Mammillaria wrightii, par exemple, a été baptisé en son honneur par Engelmann.
 </t>
